--- a/biology/Botanique/Parc_floral_de_la_Beaujoire/Parc_floral_de_la_Beaujoire.xlsx
+++ b/biology/Botanique/Parc_floral_de_la_Beaujoire/Parc_floral_de_la_Beaujoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc floral de la Beaujoire est un jardin paysager de la ville de Nantes.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc floral de la Beaujoire se situe le long de l'Erdre, au nord-est de la ville de Nantes, dans le quartier Nantes Erdre (Beaujoire), sur le côté mitoyen septentrional du parc des expositions, non loin du stade de la Beaujoire.
 </t>
@@ -543,7 +557,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte le nom du quartier de la Beaujoire.
 </t>
@@ -574,9 +590,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été créé en 1971 sur la partie nord du parc des expositions (qui comptait alors 34 hectares), par le « Service des Espaces verts et de l'Environnement » (SEVE) de la ville de Nantes pour y accueillir les Floralies internationales[1], dans le vallon traversé par le ruisseau de la Bretonnière. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été créé en 1971 sur la partie nord du parc des expositions (qui comptait alors 34 hectares), par le « Service des Espaces verts et de l'Environnement » (SEVE) de la ville de Nantes pour y accueillir les Floralies internationales, dans le vallon traversé par le ruisseau de la Bretonnière. 
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc s'étend sur 14 hectares, qui inclut notamment une roseraie baptisée en l'honneur de Paul Plantiveau, ancien responsable du service des espaces verts de la ville de Nantes de 1951 à 1984[2], et qui regroupe 20 000 rosiers sur une superficie de 12 hectares.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc s'étend sur 14 hectares, qui inclut notamment une roseraie baptisée en l'honneur de Paul Plantiveau, ancien responsable du service des espaces verts de la ville de Nantes de 1951 à 1984, et qui regroupe 20 000 rosiers sur une superficie de 12 hectares.
 Le parc comporte également différents autres espaces :
 le jardin des bruyères ;
 le jardin d'iris ;
